--- a/Buding_Secondary_TestCases/Weiche/布丁微车V2.4.3测试用例.xlsx
+++ b/Buding_Secondary_TestCases/Weiche/布丁微车V2.4.3测试用例.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11520" tabRatio="631" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11520" tabRatio="631" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页M" sheetId="4" r:id="rId1"/>
     <sheet name="changelog" sheetId="11" r:id="rId2"/>
     <sheet name="车辆管理CM" sheetId="5" r:id="rId3"/>
-    <sheet name="附近F" sheetId="6" r:id="rId4"/>
-    <sheet name="车辆违章列表CVL" sheetId="9" r:id="rId5"/>
+    <sheet name="车辆违章列表CVL" sheetId="9" r:id="rId4"/>
+    <sheet name="附近F" sheetId="6" r:id="rId5"/>
     <sheet name="账户与设置AS" sheetId="2" r:id="rId6"/>
     <sheet name="新增检查点NC" sheetId="1" r:id="rId7"/>
     <sheet name="高发违章周排行HC" sheetId="3" r:id="rId8"/>
-    <sheet name="消息盒子MB" sheetId="10" r:id="rId9"/>
-    <sheet name="行车记录仪TR" sheetId="7" r:id="rId10"/>
-    <sheet name="其他O" sheetId="8" r:id="rId11"/>
+    <sheet name="推送P" sheetId="12" r:id="rId9"/>
+    <sheet name="消息盒子MB" sheetId="10" r:id="rId10"/>
+    <sheet name="行车记录仪TR" sheetId="7" r:id="rId11"/>
+    <sheet name="其他O" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="269">
   <si>
     <t>测试项</t>
   </si>
@@ -351,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V2.4.1新增功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 进入应用首页，点击任意已添加车辆
 2. 下拉刷新列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,12 +623,6 @@
     <t>1. 进入应用首页，点击“新增检查点”入口
 2. 点击任意检查点信息
 3. 查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 页面进入新增检查点列表页面，列表显示全部新增检查点
-2. 进入该检查点详情页
-3. 页面显示该检查点详细信息，并在map中标记检查点地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -716,12 +707,6 @@
   <si>
     <t>1. 页面进入高发违章周排行“地图”/“列表”页面，显示全部检查点
 2. 页面切换至“地图”/“列表”页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 页面进入“高发违章周排行”列表页面，列表显示全部高发检查点数据
-2. 进入该检查点详情页
-3. 页面显示该检查点详细信息，并在map中标记检查点地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1239,29 +1224,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20131112 add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 进入“附近”页面
-2. 默认显示为”摄像头“；
-地图区域显示高德地图；
-地图中显示定位周边”摄像头“POI数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 进入“附近”页面
-2. 默认显示为”摄像头“；
-地图区域显示Google地图；
-地图中显示定位周边”摄像头“POI数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1318,6 +1285,242 @@
       </rPr>
       <t>GoogleService</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">测试设备已联网(不关心网络环境)
+已开启定位服务
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备卸载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GoogleService</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">测试设备已联网(不关心网络环境)
+已开启定位服务
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备重新安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GoogleService</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“附近”页面
+2. 默认显示为”摄像头“；
+地图区域显示Google地图；
+地图中显示定位周边POI数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“附近”页面
+2. 默认显示为”摄像头“；
+地图区域显示高德地图；
+地图中显示定位周边POI数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.4.3新增用例 @20131122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.4.1新增用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备未联网
+查询城市为手动输入验证码城市，如“惠州”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击任意已添加车辆
+2. 下拉刷新列表
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入该车辆违章列表页面，列表显示当前车辆违章信息
+2. 列表处于刷新状态，且在list顶部显示输入验证码区域
+3. 验证码显示默认加载失败图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击任意已添加车辆
+2. 下拉刷新列表
+3. 不输入验证码，点击“确定”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入该车辆违章列表页面，列表显示当前车辆违章信息
+2. 列表处于刷新状态，且在list顶部显示输入验证码区域
+3. 弹出Toast提示“请输入验证码”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击任意已添加车辆
+2. 下拉刷新列表
+3. 输入错误验证码，点击“确定”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入该车辆违章列表页面，列表显示当前车辆违章信息
+2. 列表处于刷新状态，且在list顶部显示输入验证码区域
+3. 弹出Toast提示“验证码输入错误，请重新输入”；验证码图片自动刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+已开启定位服务
+手机系统2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 后台增加Push消息，查看前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+已开启定位服务
+手机系统2.3-4.0.3
+未登录Google账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+已开启定位服务
+手机系统2.3-4.0.3
+已登录Google账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 由于系统版本过低，因此前端使用旧的Push逻辑。随即向服务器发查询Push请求，因此Push无法及时到达。如果已经为设备发送消息，则清空前端缓存应该会收到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 由于未登录Google账户，因此前端使用旧的Push逻辑。随即向服务器发查询Push请求，因此Push无法及时到达。如果已经为设备发送消息，则清空前端缓存应该会收到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 满足新Push技术方案的要求，前端设备可及时收到Push消息，展现为NotificationBar的通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+已开启定位服务
+手机系统4.2.2
+不关心是否已登录Google账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附近F005-008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送P001-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启定位服务
+当前定位城市为北京
+未安装GooglePlayService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启定位服务
+当前定位城市为北京
+已安装GooglePlayService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入新增检查点列表页面，列表显示全部新增检查点
+2. 进入该检查点详情页
+3. 页面地图使用GoogleMap，显示该检查点详细信息，并在map中标记检查点地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入新增检查点列表页面，列表显示全部新增检查点
+2. 进入该检查点详情页
+3. 页面地图使用高德Map，页面显示该检查点详细信息，并在map中标记检查点地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入“高发违章周排行”列表页面，列表显示全部高发检查点数据
+2. 进入该检查点详情页
+3. 页面地图使用GoogleMap，页面显示该检查点详细信息，并在map中标记检查点地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入“高发违章周排行”列表页面，列表显示全部高发检查点数据
+2. 进入该检查点详情页
+3. 页面地图使用高德Map，页面显示该检查点详细信息，并在map中标记检查点地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,7 +1580,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1393,12 +1596,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,7 +1666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1548,14 +1745,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1572,11 +1763,182 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2580,8 +2942,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="33">
-      <c r="A2" s="29" t="s">
-        <v>99</v>
+      <c r="A2" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>8</v>
@@ -2601,7 +2963,7 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="115.5">
-      <c r="A3" s="30"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2615,7 +2977,7 @@
         <v>59</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -2652,10 +3014,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2672,6 +3034,183 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="132">
+      <c r="A2" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="115.5">
+      <c r="A3" s="29"/>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="115.5">
+      <c r="A4" s="29"/>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="115.5">
+      <c r="A5" s="29"/>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="115.5">
+      <c r="A6" s="29"/>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="115.5">
+      <c r="A7" s="29"/>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D8:D1048576 D1">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -2714,234 +3253,234 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.5">
-      <c r="A2" s="31" t="s">
-        <v>156</v>
+      <c r="A2" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="31"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="66">
-      <c r="A4" s="31"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="49.5">
-      <c r="A5" s="31"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="49.5">
-      <c r="A6" s="31"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="49.5">
-      <c r="A7" s="31"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="115.5">
-      <c r="A8" s="31"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="32"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8" ht="66">
-      <c r="A9" s="31"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="22" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="32"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="82.5">
-      <c r="A10" s="31"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="66">
+      <c r="A11" s="29"/>
+      <c r="B11" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" ht="66">
+      <c r="A12" s="29"/>
+      <c r="B12" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="49.5">
+      <c r="A13" s="29"/>
+      <c r="B13" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" ht="66">
-      <c r="A11" s="31"/>
-      <c r="B11" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" ht="66">
-      <c r="A12" s="31"/>
-      <c r="B12" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>210</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="49.5">
-      <c r="A13" s="31"/>
-      <c r="B13" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -2952,114 +3491,114 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="27" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="28" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="24" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3075,7 +3614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -3118,174 +3657,174 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="49.5">
-      <c r="A2" s="31" t="s">
-        <v>151</v>
+      <c r="A2" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="49.5">
-      <c r="A3" s="31"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>215</v>
+      <c r="C3" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>220</v>
+        <v>149</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>217</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="33">
-      <c r="A4" s="31"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="31"/>
+        <v>211</v>
+      </c>
+      <c r="E4" s="29"/>
       <c r="F4" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="33">
-      <c r="A5" s="31"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="31"/>
+        <v>213</v>
+      </c>
+      <c r="E5" s="29"/>
       <c r="F5" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A6" s="31"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="31"/>
+        <v>214</v>
+      </c>
+      <c r="E6" s="29"/>
       <c r="F6" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="33">
-      <c r="A7" s="31"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="23" t="s">
-        <v>221</v>
-      </c>
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="33">
-      <c r="A8" s="31"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="23" t="s">
-        <v>222</v>
-      </c>
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" ht="49.5">
-      <c r="A9" s="31"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="49.5">
-      <c r="A10" s="31"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>228</v>
-      </c>
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="49.5">
-      <c r="A11" s="31"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>229</v>
-      </c>
       <c r="F11" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G11" s="23"/>
     </row>
@@ -3297,10 +3836,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3319,30 +3858,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>231</v>
+    <row r="1" spans="1:2" ht="16.5">
+      <c r="A1" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3350,8 +3905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3389,8 +3944,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="132">
-      <c r="A2" s="31" t="s">
-        <v>101</v>
+      <c r="A2" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>8</v>
@@ -3402,15 +3957,15 @@
         <v>23</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="132">
-      <c r="A3" s="31"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
@@ -3421,15 +3976,15 @@
         <v>23</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="82.5">
-      <c r="A4" s="31"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
@@ -3440,134 +3995,134 @@
         <v>23</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" s="16" customFormat="1" ht="82.5">
-      <c r="A5" s="31"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" s="16" customFormat="1" ht="66">
-      <c r="A6" s="31"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" s="16" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>181</v>
       </c>
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" s="16" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A8" s="31"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="31"/>
+        <v>180</v>
+      </c>
+      <c r="F8" s="29"/>
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" s="16" customFormat="1" ht="132" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="22" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>186</v>
+      <c r="E9" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>183</v>
       </c>
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" s="16" customFormat="1" ht="99" customHeight="1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" s="16" customFormat="1" ht="99" customHeight="1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="23"/>
     </row>
   </sheetData>
@@ -3579,10 +4134,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3600,24 +4155,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
     <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3640,195 +4195,227 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.5">
-      <c r="A2" s="31" t="s">
-        <v>100</v>
+    <row r="2" spans="1:7" ht="99">
+      <c r="A2" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="66">
+    <row r="3" spans="1:7" ht="49.5">
       <c r="A3" s="31"/>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="49.5">
+    <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="31"/>
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="66">
+    <row r="5" spans="1:7" ht="49.5">
       <c r="A5" s="31"/>
       <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="82.5">
-      <c r="A7" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" ht="82.5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" ht="49.5">
-      <c r="A9" s="31"/>
-      <c r="B9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8" ht="66">
-      <c r="A10" s="31"/>
+    <row r="6" spans="1:7" ht="49.5">
+      <c r="A6" s="31"/>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="33">
+      <c r="A7" s="31"/>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="132">
+      <c r="A9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="82.5">
+      <c r="A10" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="B10" s="22" t="s">
-        <v>56</v>
+        <v>241</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="82.5">
+      <c r="A11" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="66">
+      <c r="A12" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A7:A10"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3847,24 +4434,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3887,164 +4475,189 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="99">
+    <row r="2" spans="1:8" ht="49.5">
       <c r="A2" s="29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="49.5">
-      <c r="A3" s="33"/>
+    <row r="3" spans="1:8" ht="66">
+      <c r="A3" s="29"/>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="49.5">
-      <c r="A4" s="33"/>
+    <row r="4" spans="1:8" ht="49.5">
+      <c r="A4" s="29"/>
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>120</v>
+        <v>66</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="49.5">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:8" ht="66">
+      <c r="A5" s="29"/>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>117</v>
+        <v>69</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="49.5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="33">
-      <c r="A7" s="33"/>
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="132">
-      <c r="A9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="10"/>
+    <row r="6" spans="1:8" s="13" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="66">
+      <c r="A7" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="66">
+      <c r="A8" s="29"/>
+      <c r="B8" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="66">
+      <c r="A9" s="29"/>
+      <c r="B9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" ht="66">
+      <c r="A10" s="29"/>
+      <c r="B10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+  <conditionalFormatting sqref="G1:G5 G7:G1048576">
+    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H10">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4104,8 +4717,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="148.5">
-      <c r="A2" s="29" t="s">
-        <v>103</v>
+      <c r="A2" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
@@ -4125,7 +4738,7 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="132">
-      <c r="A3" s="33"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
@@ -4144,7 +4757,7 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="148.5">
-      <c r="A4" s="33"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
@@ -4163,7 +4776,7 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="148.5">
-      <c r="A5" s="33"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
@@ -4182,7 +4795,7 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="82.5">
-      <c r="A6" s="33"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
@@ -4201,7 +4814,7 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="49.5">
-      <c r="A7" s="33"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4220,7 +4833,7 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="49.5">
-      <c r="A8" s="33"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="9" t="s">
         <v>55</v>
       </c>
@@ -4239,7 +4852,7 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="66">
-      <c r="A9" s="33"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="9" t="s">
         <v>56</v>
       </c>
@@ -4258,7 +4871,7 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="33">
-      <c r="A10" s="30"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="9" t="s">
         <v>57</v>
       </c>
@@ -4282,10 +4895,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4304,17 +4917,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
@@ -4345,162 +4959,181 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="66">
-      <c r="A2" s="31" t="s">
-        <v>104</v>
+      <c r="A2" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:8" ht="82.5">
+      <c r="A3" s="29"/>
       <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" s="16" customFormat="1" ht="82.5">
+      <c r="A4" s="29"/>
+      <c r="B4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" ht="66">
+      <c r="A5" s="29"/>
+      <c r="B5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D5" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" ht="66">
+      <c r="A6" s="29"/>
+      <c r="B6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" ht="66">
+      <c r="A7" s="29"/>
+      <c r="B7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" ht="66">
-      <c r="A4" s="31"/>
-      <c r="B4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" ht="66">
-      <c r="A5" s="31"/>
-      <c r="B5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" ht="66">
-      <c r="A6" s="31"/>
-      <c r="B6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="66">
+      <c r="A8" s="29"/>
+      <c r="B8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" s="16" customFormat="1" ht="66">
-      <c r="A7" s="31"/>
-      <c r="B7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="H9" s="32"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="H10" s="32"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="H11" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1 G8:G1048576">
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+  <conditionalFormatting sqref="G1 G9:G1048576">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+  <conditionalFormatting sqref="H10:H11">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4519,17 +5152,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.875" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="16.375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="16" customWidth="1"/>
     <col min="5" max="5" width="32.625" style="16" customWidth="1"/>
     <col min="6" max="6" width="61.875" style="16" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="16" customWidth="1"/>
@@ -4560,143 +5194,162 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="66">
-      <c r="A2" s="31" t="s">
-        <v>124</v>
+      <c r="A2" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="31"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>133</v>
-      </c>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="66">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:8" ht="82.5">
+      <c r="A4" s="29"/>
       <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:8" ht="66">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:8" ht="82.5">
+      <c r="A5" s="29"/>
       <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="66">
-      <c r="A6" s="31"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" ht="66">
+      <c r="A7" s="29"/>
+      <c r="B7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="H8" s="32"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="H9" s="32"/>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="H10" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+  <conditionalFormatting sqref="H9:H10">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4715,175 +5368,141 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="38.5" customWidth="1"/>
+    <col min="6" max="6" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="16.5">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="132">
-      <c r="A2" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:7" ht="66">
+      <c r="A2" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>143</v>
+      <c r="C2" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>254</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="115.5">
-      <c r="A3" s="31"/>
-      <c r="B3" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" ht="66">
+      <c r="A3" s="29"/>
+      <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="31"/>
+      <c r="C3" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>254</v>
+      </c>
       <c r="F3" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="115.5">
-      <c r="A4" s="31"/>
-      <c r="B4" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" ht="66">
+      <c r="A4" s="29"/>
+      <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>145</v>
+      <c r="C4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>254</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="115.5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="31"/>
+        <v>259</v>
+      </c>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" ht="66">
+      <c r="A5" s="29"/>
+      <c r="B5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>254</v>
+      </c>
       <c r="F5" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="115.5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="115.5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>259</v>
+      </c>
+      <c r="G5" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+  <conditionalFormatting sqref="G1:G5">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D8:D1048576 D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G5">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D5">
       <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>"N,F,P"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
